--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\CompanyResearchModels\Software\Fintech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\ModelsResearchMetrics\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF7BD6C-840F-48EC-A97B-D999027DAE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B152D595-F4DC-4D2F-870D-B1B8A6434C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="645" windowWidth="14235" windowHeight="15495" activeTab="1" xr2:uid="{1071E181-7193-421C-A5CB-A2D36C45E13C}"/>
+    <workbookView xWindow="225" yWindow="90" windowWidth="14235" windowHeight="15495" xr2:uid="{1071E181-7193-421C-A5CB-A2D36C45E13C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
   <si>
     <t>Price</t>
   </si>
@@ -315,9 +315,6 @@
     <t>CFFI</t>
   </si>
   <si>
-    <t>Repayments</t>
-  </si>
-  <si>
     <t>Funds receivable</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
     <t>Loan adjustments</t>
   </si>
   <si>
-    <t>Orginations</t>
-  </si>
-  <si>
     <t>Issuance</t>
   </si>
   <si>
@@ -418,6 +412,12 @@
   </si>
   <si>
     <t>P2P ex-Venmo (8% of TPV)</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Alex Chriss</t>
   </si>
 </sst>
 </file>
@@ -518,15 +518,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -542,8 +542,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12639675" y="38100"/>
-          <a:ext cx="0" cy="14963775"/>
+          <a:off x="13268325" y="0"/>
+          <a:ext cx="0" cy="15697200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -576,7 +576,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -936,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CB09A2-39C8-466B-9729-DCC597779F4B}">
-  <dimension ref="B2:L9"/>
+  <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -949,54 +949,56 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="3">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1013</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
+        <f>+Model!R28</f>
+        <v>999</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="1">
         <f>+K2*K3</f>
-        <v>57741</v>
-      </c>
+        <v>65934</v>
+      </c>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="1">
-        <f>6561+4262+4583</f>
-        <v>15406</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
+        <f>+Model!R41</f>
+        <v>15824</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -1005,10 +1007,11 @@
         <v>4</v>
       </c>
       <c r="K6" s="1">
-        <v>9879</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
+        <f>+Model!R54</f>
+        <v>11417</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -1017,18 +1020,26 @@
       </c>
       <c r="K7" s="1">
         <f>+K4-K5+K6</f>
-        <v>52214</v>
+        <v>61527</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K8" s="1">
-        <v>6768</v>
+        <v>5971</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K9" s="6">
         <f>+K7/K8</f>
-        <v>7.7148345153664302</v>
+        <v>10.304304136660527</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1038,13 +1049,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD53CAC5-8A2F-4366-88CC-76813F752FAF}">
-  <dimension ref="A1:EI96"/>
+  <dimension ref="A1:EI95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomRight" activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1107,6 +1118,9 @@
       <c r="Q1" s="9">
         <v>45657</v>
       </c>
+      <c r="R1" s="9">
+        <v>45747</v>
+      </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -1158,16 +1172,16 @@
         <v>36</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="V2" s="2"/>
       <c r="X2">
@@ -1232,7 +1246,7 @@
     </row>
     <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1">
         <v>285000</v>
@@ -1282,7 +1296,9 @@
       <c r="Q3" s="11">
         <v>437836</v>
       </c>
-      <c r="R3" s="11"/>
+      <c r="R3" s="11">
+        <v>417208</v>
+      </c>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
@@ -1305,7 +1321,7 @@
     </row>
     <row r="4" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" ref="F4:P4" si="1">+F3/B3-1</f>
@@ -1355,7 +1371,10 @@
         <f>+Q3/M3-1</f>
         <v>6.8330437837943458E-2</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="12">
+        <f>+R3/N3-1</f>
+        <v>3.3051057297083242E-2</v>
+      </c>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
@@ -1463,6 +1482,9 @@
       <c r="Q6" s="1">
         <v>434</v>
       </c>
+      <c r="R6" s="1">
+        <v>436</v>
+      </c>
       <c r="AB6" s="1">
         <f>+SUM(N6:Q6)</f>
         <v>1722</v>
@@ -1520,6 +1542,9 @@
       <c r="Q7" s="1">
         <v>6619</v>
       </c>
+      <c r="R7" s="1">
+        <v>6045</v>
+      </c>
       <c r="AB7" s="1">
         <f>+SUM(N7:Q7)</f>
         <v>26335</v>
@@ -1577,6 +1602,9 @@
       <c r="Q8" s="10">
         <v>60.6</v>
       </c>
+      <c r="R8" s="10">
+        <v>59.4</v>
+      </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1630,6 +1658,9 @@
       <c r="Q10" s="1">
         <v>4732</v>
       </c>
+      <c r="R10" s="1">
+        <v>4463</v>
+      </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1683,6 +1714,9 @@
       <c r="Q11" s="1">
         <v>3634</v>
       </c>
+      <c r="R11" s="1">
+        <v>3328</v>
+      </c>
     </row>
     <row r="13" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -1737,7 +1771,9 @@
         <f>+AB13-SUM(N13:P13)</f>
         <v>8366</v>
       </c>
-      <c r="R13" s="5"/>
+      <c r="R13" s="5">
+        <v>7791</v>
+      </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -1852,6 +1888,9 @@
         <f>+AB14-SUM(N14:P14)</f>
         <v>3997</v>
       </c>
+      <c r="R14" s="1">
+        <v>3704</v>
+      </c>
       <c r="W14" s="8"/>
       <c r="X14" s="1">
         <v>7934</v>
@@ -1962,6 +2001,9 @@
         <f t="shared" ref="Q15:Q20" si="8">+AB15-SUM(N15:P15)</f>
         <v>434</v>
       </c>
+      <c r="R15" s="1">
+        <v>371</v>
+      </c>
       <c r="W15" s="8"/>
       <c r="X15" s="1">
         <v>1741</v>
@@ -2021,7 +2063,7 @@
     </row>
     <row r="16" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" ref="B16:P16" si="10">+B13-SUM(B14:B15)</f>
@@ -2088,7 +2130,8 @@
         <v>3935</v>
       </c>
       <c r="R16" s="5">
-        <v>3650</v>
+        <f>+R13-SUM(R14:R15)</f>
+        <v>3716</v>
       </c>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
@@ -2209,6 +2252,9 @@
         <f t="shared" si="8"/>
         <v>451</v>
       </c>
+      <c r="R17" s="1">
+        <v>398</v>
+      </c>
       <c r="W17" s="8"/>
       <c r="X17" s="1">
         <v>1778</v>
@@ -2319,6 +2365,9 @@
         <f t="shared" si="8"/>
         <v>626</v>
       </c>
+      <c r="R18" s="1">
+        <v>488</v>
+      </c>
       <c r="W18" s="8"/>
       <c r="X18" s="1">
         <v>1861</v>
@@ -2429,6 +2478,9 @@
         <f t="shared" si="8"/>
         <v>773</v>
       </c>
+      <c r="R19" s="1">
+        <v>731</v>
+      </c>
       <c r="W19" s="8"/>
       <c r="X19" s="1">
         <v>2642</v>
@@ -2539,6 +2591,9 @@
         <f t="shared" si="8"/>
         <v>594</v>
       </c>
+      <c r="R20" s="1">
+        <v>503</v>
+      </c>
       <c r="W20" s="8"/>
       <c r="X20" s="1">
         <v>2070</v>
@@ -2664,6 +2719,10 @@
         <f>+SUM(Q14:Q15)+SUM(Q17:Q20)</f>
         <v>6875</v>
       </c>
+      <c r="R21" s="1">
+        <f>+SUM(R14:R15)+SUM(R17:R20)</f>
+        <v>6195</v>
+      </c>
       <c r="X21" s="1">
         <f>+SUM(X14:X15)+SUM(X17:X20)</f>
         <v>18026</v>
@@ -2790,10 +2849,13 @@
         <v>1454</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" ref="Q22" si="22">+Q13-Q21</f>
+        <f t="shared" ref="Q22:R22" si="22">+Q13-Q21</f>
         <v>1491</v>
       </c>
-      <c r="R22" s="5"/>
+      <c r="R22" s="5">
+        <f t="shared" si="22"/>
+        <v>1596</v>
+      </c>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -2912,6 +2974,9 @@
         <f t="shared" ref="Q23:Q25" si="24">+AB23-SUM(N23:P23)</f>
         <v>-31</v>
       </c>
+      <c r="R23" s="1">
+        <v>73</v>
+      </c>
       <c r="X23" s="1">
         <v>1776</v>
       </c>
@@ -3036,6 +3101,10 @@
         <f t="shared" si="28"/>
         <v>1460</v>
       </c>
+      <c r="R24" s="1">
+        <f t="shared" ref="R24" si="29">+R22+R23</f>
+        <v>1669</v>
+      </c>
       <c r="X24" s="1">
         <f>+X22+X23</f>
         <v>5204</v>
@@ -3057,43 +3126,43 @@
         <v>5767</v>
       </c>
       <c r="AC24" s="1">
-        <f t="shared" ref="AC24:AL24" si="29">+AC22+AC23</f>
+        <f t="shared" ref="AC24:AL24" si="30">+AC22+AC23</f>
         <v>6421.7585000000026</v>
       </c>
       <c r="AD24" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7177.2134738999994</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7979.8866054392611</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8530.6599909640372</v>
       </c>
       <c r="AG24" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>9149.7052043984258</v>
       </c>
       <c r="AH24" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>9794.567812339872</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10051.960162223375</v>
       </c>
       <c r="AJ24" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>11156.089486822442</v>
       </c>
       <c r="AK24" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>11884.324034813721</v>
       </c>
       <c r="AL24" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12642.589035523346</v>
       </c>
     </row>
@@ -3150,6 +3219,9 @@
         <f t="shared" si="24"/>
         <v>289</v>
       </c>
+      <c r="R25" s="1">
+        <v>316</v>
+      </c>
       <c r="X25" s="1">
         <v>863</v>
       </c>
@@ -3170,39 +3242,39 @@
         <v>1412.7868700000006</v>
       </c>
       <c r="AD25" s="1">
-        <f t="shared" ref="AD25:AL25" si="30">+AD24*0.22</f>
+        <f t="shared" ref="AD25:AL25" si="31">+AD24*0.22</f>
         <v>1578.9869642579999</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1755.5750531966376</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1876.7451980120882</v>
       </c>
       <c r="AG25" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2012.9351449676537</v>
       </c>
       <c r="AH25" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2154.8049187147717</v>
       </c>
       <c r="AI25" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2211.4312356891423</v>
       </c>
       <c r="AJ25" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2454.3396871009372</v>
       </c>
       <c r="AK25" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2614.5512876590187</v>
       </c>
       <c r="AL25" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2781.3695878151361</v>
       </c>
     </row>
@@ -3211,70 +3283,73 @@
         <v>31</v>
       </c>
       <c r="B26" s="5">
-        <f t="shared" ref="B26:M26" si="31">+B24-B25</f>
+        <f t="shared" ref="B26:M26" si="32">+B24-B25</f>
         <v>1155</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1185</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1088</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>803</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>545</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-251</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1386</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>946</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>959</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1053</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1059</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1091</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" ref="N26:O26" si="32">+N24-N25</f>
+        <f t="shared" ref="N26:O26" si="33">+N24-N25</f>
         <v>1100</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1241</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" ref="P26:Q26" si="33">+P24-P25</f>
+        <f t="shared" ref="P26:Q26" si="34">+P24-P25</f>
         <v>1073</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1171</v>
       </c>
-      <c r="R26" s="5"/>
+      <c r="R26" s="5">
+        <f t="shared" ref="R26" si="35">+R24-R25</f>
+        <v>1353</v>
+      </c>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -3300,43 +3375,43 @@
         <v>4585</v>
       </c>
       <c r="AC26" s="5">
-        <f t="shared" ref="AC26:AL26" si="34">+AC24-AC25</f>
+        <f t="shared" ref="AC26:AL26" si="36">+AC24-AC25</f>
         <v>5008.9716300000018</v>
       </c>
       <c r="AD26" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5598.2265096419997</v>
       </c>
       <c r="AE26" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>6224.3115522426233</v>
       </c>
       <c r="AF26" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>6653.9147929519495</v>
       </c>
       <c r="AG26" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>7136.7700594307717</v>
       </c>
       <c r="AH26" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>7639.7628936251003</v>
       </c>
       <c r="AI26" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>7840.5289265342326</v>
       </c>
       <c r="AJ26" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>8701.749799721505</v>
       </c>
       <c r="AK26" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9269.7727471547023</v>
       </c>
       <c r="AL26" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9861.2194477082103</v>
       </c>
       <c r="AM26" s="5">
@@ -3344,403 +3419,403 @@
         <v>9762.6072532311282</v>
       </c>
       <c r="AN26" s="5">
-        <f t="shared" ref="AN26:CY26" si="35">+AM26*(1+$AO$30)</f>
+        <f t="shared" ref="AN26:CY26" si="37">+AM26*(1+$AO$30)</f>
         <v>9664.9811806988164</v>
       </c>
       <c r="AO26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9568.3313688918279</v>
       </c>
       <c r="AP26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9472.6480552029097</v>
       </c>
       <c r="AQ26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9377.9215746508798</v>
       </c>
       <c r="AR26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9284.1423589043716</v>
       </c>
       <c r="AS26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9191.3009353153284</v>
       </c>
       <c r="AT26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9099.3879259621754</v>
       </c>
       <c r="AU26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9008.3940467025532</v>
       </c>
       <c r="AV26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>8918.3101062355272</v>
       </c>
       <c r="AW26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>8829.1270051731717</v>
       </c>
       <c r="AX26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>8740.8357351214399</v>
       </c>
       <c r="AY26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>8653.4273777702256</v>
       </c>
       <c r="AZ26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>8566.8931039925228</v>
       </c>
       <c r="BA26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>8481.2241729525977</v>
       </c>
       <c r="BB26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>8396.4119312230723</v>
       </c>
       <c r="BC26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>8312.4478119108408</v>
       </c>
       <c r="BD26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>8229.3233337917318</v>
       </c>
       <c r="BE26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>8147.0301004538142</v>
       </c>
       <c r="BF26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>8065.5597994492764</v>
       </c>
       <c r="BG26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7984.904201454784</v>
       </c>
       <c r="BH26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7905.0551594402359</v>
       </c>
       <c r="BI26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7826.0046078458336</v>
       </c>
       <c r="BJ26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7747.7445617673748</v>
       </c>
       <c r="BK26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7670.267116149701</v>
       </c>
       <c r="BL26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7593.5644449882038</v>
       </c>
       <c r="BM26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7517.6288005383221</v>
       </c>
       <c r="BN26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7442.4525125329392</v>
       </c>
       <c r="BO26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7368.0279874076095</v>
       </c>
       <c r="BP26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7294.3477075335331</v>
       </c>
       <c r="BQ26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7221.4042304581981</v>
       </c>
       <c r="BR26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7149.190188153616</v>
       </c>
       <c r="BS26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7077.6982862720797</v>
       </c>
       <c r="BT26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7006.9213034093591</v>
       </c>
       <c r="BU26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6936.8520903752651</v>
       </c>
       <c r="BV26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6867.4835694715121</v>
       </c>
       <c r="BW26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6798.8087337767965</v>
       </c>
       <c r="BX26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6730.8206464390287</v>
       </c>
       <c r="BY26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6663.5124399746383</v>
       </c>
       <c r="BZ26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6596.8773155748922</v>
       </c>
       <c r="CA26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6530.9085424191435</v>
       </c>
       <c r="CB26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6465.5994569949517</v>
       </c>
       <c r="CC26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6400.9434624250025</v>
       </c>
       <c r="CD26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6336.9340278007521</v>
       </c>
       <c r="CE26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6273.5646875227449</v>
       </c>
       <c r="CF26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6210.8290406475171</v>
       </c>
       <c r="CG26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6148.720750241042</v>
       </c>
       <c r="CH26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6087.2335427386315</v>
       </c>
       <c r="CI26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6026.3612073112454</v>
       </c>
       <c r="CJ26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5966.0975952381332</v>
       </c>
       <c r="CK26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5906.4366192857515</v>
       </c>
       <c r="CL26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5847.3722530928935</v>
       </c>
       <c r="CM26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5788.8985305619644</v>
       </c>
       <c r="CN26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5731.0095452563446</v>
       </c>
       <c r="CO26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5673.6994498037811</v>
       </c>
       <c r="CP26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5616.9624553057429</v>
       </c>
       <c r="CQ26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5560.7928307526854</v>
       </c>
       <c r="CR26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5505.1849024451585</v>
       </c>
       <c r="CS26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5450.1330534207073</v>
       </c>
       <c r="CT26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5395.6317228865</v>
       </c>
       <c r="CU26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5341.6754056576347</v>
       </c>
       <c r="CV26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5288.2586516010579</v>
       </c>
       <c r="CW26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5235.3760650850472</v>
       </c>
       <c r="CX26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5183.0223044341965</v>
       </c>
       <c r="CY26" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5131.1920813898541</v>
       </c>
       <c r="CZ26" s="5">
-        <f t="shared" ref="CZ26:EI26" si="36">+CY26*(1+$AO$30)</f>
+        <f t="shared" ref="CZ26:EI26" si="38">+CY26*(1+$AO$30)</f>
         <v>5079.8801605759554</v>
       </c>
       <c r="DA26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5029.0813589701957</v>
       </c>
       <c r="DB26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4978.7905453804933</v>
       </c>
       <c r="DC26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4929.0026399266881</v>
       </c>
       <c r="DD26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4879.7126135274211</v>
       </c>
       <c r="DE26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4830.915487392147</v>
       </c>
       <c r="DF26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4782.6063325182258</v>
       </c>
       <c r="DG26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4734.7802691930438</v>
       </c>
       <c r="DH26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4687.4324665011136</v>
       </c>
       <c r="DI26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4640.5581418361025</v>
       </c>
       <c r="DJ26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4594.1525604177414</v>
       </c>
       <c r="DK26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4548.2110348135639</v>
       </c>
       <c r="DL26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4502.7289244654285</v>
       </c>
       <c r="DM26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4457.7016352207738</v>
       </c>
       <c r="DN26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4413.1246188685664</v>
       </c>
       <c r="DO26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4368.9933726798808</v>
       </c>
       <c r="DP26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4325.3034389530821</v>
       </c>
       <c r="DQ26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4282.0504045635516</v>
       </c>
       <c r="DR26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4239.2299005179157</v>
       </c>
       <c r="DS26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4196.8376015127369</v>
       </c>
       <c r="DT26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4154.8692254976095</v>
       </c>
       <c r="DU26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4113.3205332426332</v>
       </c>
       <c r="DV26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4072.1873279102069</v>
       </c>
       <c r="DW26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4031.4654546311049</v>
       </c>
       <c r="DX26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3991.1508000847939</v>
       </c>
       <c r="DY26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3951.2392920839461</v>
       </c>
       <c r="DZ26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3911.7268991631067</v>
       </c>
       <c r="EA26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3872.6096301714756</v>
       </c>
       <c r="EB26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3833.8835338697609</v>
       </c>
       <c r="EC26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3795.5446985310632</v>
       </c>
       <c r="ED26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3757.5892515457526</v>
       </c>
       <c r="EE26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3720.0133590302949</v>
       </c>
       <c r="EF26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3682.813225439992</v>
       </c>
       <c r="EG26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3645.9850931855922</v>
       </c>
       <c r="EH26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3609.525242253736</v>
       </c>
       <c r="EI26" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3573.4299898311988</v>
       </c>
     </row>
@@ -3749,70 +3824,73 @@
         <v>32</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" ref="B27:M27" si="37">+B26/B28</f>
+        <f t="shared" ref="B27:M27" si="39">+B26/B28</f>
         <v>0.97058823529411764</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.99915682967959529</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.91659646166807074</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.67878275570583257</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.46501706484641636</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.21675302245250433</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.1979256698357823</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.82692307692307687</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.84567901234567899</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.94524236983842014</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.96448087431693985</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0064575645756457</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" ref="N27:O27" si="38">+N26/N28</f>
+        <f t="shared" ref="N27:O27" si="40">+N26/N28</f>
         <v>1.0261194029850746</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.1852913085004775</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" ref="P27" si="39">+P26/P28</f>
+        <f t="shared" ref="P27" si="41">+P26/P28</f>
         <v>1.0478515625</v>
       </c>
       <c r="Q27" s="3">
         <f>+Q26/Q28</f>
         <v>1.1559723593287266</v>
       </c>
-      <c r="R27" s="3"/>
+      <c r="R27" s="3">
+        <f>+R26/R28</f>
+        <v>1.3543543543543544</v>
+      </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
@@ -3838,43 +3916,43 @@
         <v>4.4128970163618861</v>
       </c>
       <c r="AC27" s="3">
-        <f t="shared" ref="AC27:AL27" si="40">+AC26/AC28</f>
+        <f t="shared" ref="AC27:AL27" si="42">+AC26/AC28</f>
         <v>4.9700560908089679</v>
       </c>
       <c r="AD27" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.7265288150912381</v>
       </c>
       <c r="AE27" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>6.5638790878143913</v>
       </c>
       <c r="AF27" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>7.2339374726030297</v>
       </c>
       <c r="AG27" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>7.998848762826138</v>
       </c>
       <c r="AH27" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>8.8274227756179116</v>
       </c>
       <c r="AI27" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.3395870432797299</v>
       </c>
       <c r="AJ27" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10.686049220546426</v>
       </c>
       <c r="AK27" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>11.735671147943105</v>
       </c>
       <c r="AL27" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>12.870568587632967</v>
       </c>
     </row>
@@ -3931,6 +4009,9 @@
         <f>+(AB28*4)-SUM(N28:P28)</f>
         <v>1013</v>
       </c>
+      <c r="R28" s="1">
+        <v>999</v>
+      </c>
       <c r="W28" s="8"/>
       <c r="X28" s="1">
         <v>1186</v>
@@ -3952,172 +4033,176 @@
         <v>1007.8299999999999</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" ref="AD28:AL28" si="41">+AC28*0.97</f>
+        <f t="shared" ref="AD28:AL28" si="43">+AC28*0.97</f>
         <v>977.59509999999989</v>
       </c>
       <c r="AE28" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>948.26724699999988</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>919.81922958999985</v>
       </c>
       <c r="AG28" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>892.22465270229986</v>
       </c>
       <c r="AH28" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>865.45791312123083</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>839.49417572759387</v>
       </c>
       <c r="AJ28" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>814.30935045576598</v>
       </c>
       <c r="AK28" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>789.88006994209297</v>
       </c>
       <c r="AL28" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>766.18366784383011</v>
       </c>
     </row>
     <row r="30" spans="1:139" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B30" s="7">
-        <f t="shared" ref="B30:P30" si="42">+B16/B13</f>
+        <f t="shared" ref="B30:P30" si="44">+B16/B13</f>
         <v>0.5776562241007791</v>
       </c>
       <c r="C30" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.56829111894838091</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.54189582659333546</v>
       </c>
       <c r="E30" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.52269442035270308</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.5085608514576585</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.48692330296796943</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.50993280747881975</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.49722335094135173</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.47088068181818182</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.45944833264717994</v>
       </c>
       <c r="L30" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.45416554327311942</v>
       </c>
       <c r="M30" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.45751308248193373</v>
       </c>
       <c r="N30" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.44953890115599426</v>
       </c>
       <c r="O30" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.45757767913760306</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.46565566458519181</v>
       </c>
       <c r="Q30" s="7">
         <f>+Q16/Q13</f>
         <v>0.47035620368156827</v>
       </c>
+      <c r="R30" s="7">
+        <f>+R16/R13</f>
+        <v>0.4769605955589783</v>
+      </c>
       <c r="X30" s="7">
         <f>+X16/X13</f>
         <v>0.54903514496131256</v>
       </c>
       <c r="Y30" s="7">
-        <f t="shared" ref="Y30:AL30" si="43">+Y16/Y13</f>
+        <f t="shared" ref="Y30:AL30" si="45">+Y16/Y13</f>
         <v>0.55165346261479642</v>
       </c>
       <c r="Z30" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.50050875790391747</v>
       </c>
       <c r="AA30" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.46031372812468507</v>
       </c>
       <c r="AB30" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.46098688555524103</v>
       </c>
       <c r="AC30" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.45724124917445047</v>
       </c>
       <c r="AD30" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.45968460636448188</v>
       </c>
       <c r="AE30" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.46198834314365428</v>
       </c>
       <c r="AF30" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.45346452399244441</v>
       </c>
       <c r="AG30" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.45488337742963109</v>
       </c>
       <c r="AH30" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.45624712976246085</v>
       </c>
       <c r="AI30" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.44755792083964685</v>
       </c>
       <c r="AJ30" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.44881780740898092</v>
       </c>
       <c r="AK30" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.45002876634455452</v>
       </c>
       <c r="AL30" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.45119269774864951</v>
       </c>
       <c r="AN30" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AO30" s="7">
         <v>-0.01</v>
@@ -4128,83 +4213,87 @@
         <v>54</v>
       </c>
       <c r="B31" s="7">
-        <f t="shared" ref="B31:L31" si="44">+B22/B13</f>
+        <f t="shared" ref="B31:L31" si="46">+B22/B13</f>
         <v>0.18233051549809381</v>
       </c>
       <c r="C31" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.18082718820134658</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.16887738595923649</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.15206707140792136</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.11522443313280889</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.12547751983543931</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.17148699970785861</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.1718813490451036</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.16519886363636363</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.15877590229175242</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.16271232138042599</v>
       </c>
       <c r="M31" s="7">
-        <f>+M22/M13</f>
+        <f t="shared" ref="M31:R31" si="47">+M22/M13</f>
         <v>0.17655120857214054</v>
       </c>
       <c r="N31" s="7">
-        <f>+N22/N13</f>
+        <f t="shared" si="47"/>
         <v>0.17924405766982726</v>
       </c>
       <c r="O31" s="7">
-        <f>+O22/O13</f>
+        <f t="shared" si="47"/>
         <v>0.18237159162967659</v>
       </c>
       <c r="P31" s="7">
-        <f>+P22/P13</f>
+        <f t="shared" si="47"/>
         <v>0.18529374283165542</v>
       </c>
       <c r="Q31" s="7">
-        <f>+Q22/Q13</f>
+        <f t="shared" si="47"/>
         <v>0.1782213722208941</v>
       </c>
+      <c r="R31" s="7">
+        <f t="shared" si="47"/>
+        <v>0.20485175202156333</v>
+      </c>
       <c r="X31" s="7">
-        <f t="shared" ref="X31:AA31" si="45">+X22/X13</f>
+        <f t="shared" ref="X31:AA31" si="48">+X22/X13</f>
         <v>0.15978372331499954</v>
       </c>
       <c r="Y31" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.1704308068266919</v>
       </c>
       <c r="Z31" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.14695835453157932</v>
       </c>
       <c r="AA31" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.16606764972624366</v>
       </c>
       <c r="AB31" s="7">
@@ -4212,47 +4301,47 @@
         <v>0.18124351353901311</v>
       </c>
       <c r="AC31" s="7">
-        <f t="shared" ref="AC31:AL31" si="46">+AC22/AC13</f>
+        <f t="shared" ref="AC31:AL31" si="49">+AC22/AC13</f>
         <v>0.18737762023071966</v>
       </c>
       <c r="AD31" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.19571818374171696</v>
       </c>
       <c r="AE31" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.20364205027332022</v>
       </c>
       <c r="AF31" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.20731274950569334</v>
       </c>
       <c r="AG31" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.21201511765899331</v>
       </c>
       <c r="AH31" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.21654941899749006</v>
       </c>
       <c r="AI31" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.21092282638294943</v>
       </c>
       <c r="AJ31" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.22514218963149768</v>
       </c>
       <c r="AK31" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.22921405034615636</v>
       </c>
       <c r="AL31" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.2331446560610935</v>
       </c>
       <c r="AN31" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AO31" s="7">
         <v>0.11</v>
@@ -4263,83 +4352,87 @@
         <v>55</v>
       </c>
       <c r="B32" s="7">
-        <f t="shared" ref="B32:L32" si="47">+B26/B13</f>
+        <f t="shared" ref="B32:L32" si="50">+B26/B13</f>
         <v>0.1914470412729985</v>
       </c>
       <c r="C32" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.18996473228598909</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.17599482368165642</v>
       </c>
       <c r="E32" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.11607400982943047</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>8.4066018818448246E-2</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-3.6879224213928884E-2</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.20245398773006135</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.12813219558445077</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.13622159090909092</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.14450391107451627</v>
       </c>
       <c r="L32" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.14276085198166621</v>
       </c>
       <c r="M32" s="7">
-        <f>+M26/M13</f>
+        <f t="shared" ref="M32:R32" si="51">+M26/M13</f>
         <v>0.13593321704460504</v>
       </c>
       <c r="N32" s="7">
-        <f>+N26/N13</f>
+        <f t="shared" si="51"/>
         <v>0.14287569814261591</v>
       </c>
       <c r="O32" s="7">
-        <f>+O26/O13</f>
+        <f t="shared" si="51"/>
         <v>0.15738744451490172</v>
       </c>
       <c r="P32" s="7">
-        <f>+P26/P13</f>
+        <f t="shared" si="51"/>
         <v>0.13674015547342933</v>
       </c>
       <c r="Q32" s="7">
-        <f>+Q26/Q13</f>
+        <f t="shared" si="51"/>
         <v>0.13997131245517572</v>
       </c>
+      <c r="R32" s="7">
+        <f t="shared" si="51"/>
+        <v>0.17366191759722757</v>
+      </c>
       <c r="X32" s="7">
-        <f t="shared" ref="X32:AA32" si="48">+X26/X13</f>
+        <f t="shared" ref="X32:AA32" si="52">+X26/X13</f>
         <v>0.20233988999720331</v>
       </c>
       <c r="Y32" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.16676520436719089</v>
       </c>
       <c r="Z32" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>9.5428446834799036E-2</v>
       </c>
       <c r="AA32" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.13980047697423667</v>
       </c>
       <c r="AB32" s="7">
@@ -4347,51 +4440,51 @@
         <v>0.14419599333270433</v>
       </c>
       <c r="AC32" s="7">
-        <f t="shared" ref="AC32:AL32" si="49">+AC26/AC13</f>
+        <f t="shared" ref="AC32:AL32" si="53">+AC26/AC13</f>
         <v>0.15002827849887013</v>
       </c>
       <c r="AD32" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.15969294182880814</v>
       </c>
       <c r="AE32" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.16909753573610692</v>
       </c>
       <c r="AF32" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.17550357457477292</v>
       </c>
       <c r="AG32" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.18275665935205532</v>
       </c>
       <c r="AH32" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.18993900643637102</v>
       </c>
       <c r="AI32" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.18925284571359363</v>
       </c>
       <c r="AJ32" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.20392309987819071</v>
       </c>
       <c r="AK32" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.21090734034065456</v>
       </c>
       <c r="AL32" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.21782915486806451</v>
       </c>
       <c r="AN32" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AO32" s="1">
         <f>+NPV(AO31,AC26:EI26)+Main!K5-Main!K6</f>
-        <v>75138.234596270093</v>
+        <v>74018.234596270093</v>
       </c>
     </row>
     <row r="33" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4399,83 +4492,87 @@
         <v>56</v>
       </c>
       <c r="B33" s="7">
-        <f t="shared" ref="B33:L33" si="50">+B25/B24</f>
+        <f t="shared" ref="B33:L33" si="54">+B25/B24</f>
         <v>-0.24193548387096775</v>
       </c>
       <c r="C33" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.12675018422991893</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>6.6895368782161235E-2</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>-0.13418079096045199</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.18045112781954886</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>2.8057553956834531</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.15177478580171358</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.16651982378854627</v>
       </c>
       <c r="J33" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.22536348949919224</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.20648078372268275</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.17265625000000001</v>
       </c>
       <c r="M33" s="7">
-        <f>+M25/M24</f>
+        <f t="shared" ref="M33:R33" si="55">+M25/M24</f>
         <v>0.26383265856950067</v>
       </c>
       <c r="N33" s="7">
-        <f>+N25/N24</f>
+        <f t="shared" si="55"/>
         <v>0.22589725545390571</v>
       </c>
       <c r="O33" s="7">
-        <f>+O25/O24</f>
+        <f t="shared" si="55"/>
         <v>0.17923280423280424</v>
       </c>
       <c r="P33" s="7">
-        <f>+P25/P24</f>
+        <f t="shared" si="55"/>
         <v>0.2190684133915575</v>
       </c>
       <c r="Q33" s="7">
-        <f>+Q25/Q24</f>
+        <f t="shared" si="55"/>
         <v>0.19794520547945205</v>
       </c>
+      <c r="R33" s="7">
+        <f t="shared" si="55"/>
+        <v>0.18933493109646496</v>
+      </c>
       <c r="X33" s="7">
-        <f t="shared" ref="X33:AA33" si="51">+X25/X24</f>
+        <f t="shared" ref="X33:AA33" si="56">+X25/X24</f>
         <v>0.16583397386625673</v>
       </c>
       <c r="Y33" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-1.6822879115597211E-2</v>
       </c>
       <c r="Z33" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.26504338091239854</v>
       </c>
       <c r="AA33" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.21869720292847758</v>
       </c>
       <c r="AB33" s="7">
@@ -4483,43 +4580,43 @@
         <v>0.204959250910352</v>
       </c>
       <c r="AC33" s="7">
-        <f t="shared" ref="AC33:AL33" si="52">+AC25/AC24</f>
+        <f t="shared" ref="AC33:AL33" si="57">+AC25/AC24</f>
         <v>0.22</v>
       </c>
       <c r="AD33" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.22</v>
       </c>
       <c r="AE33" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.22</v>
       </c>
       <c r="AF33" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.22</v>
       </c>
       <c r="AG33" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.22</v>
       </c>
       <c r="AH33" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.21999999999999997</v>
       </c>
       <c r="AI33" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.21999999999999997</v>
       </c>
       <c r="AJ33" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.22</v>
       </c>
       <c r="AK33" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.22000000000000003</v>
       </c>
       <c r="AL33" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.22</v>
       </c>
       <c r="AN33" s="7" t="s">
@@ -4527,7 +4624,7 @@
       </c>
       <c r="AO33" s="3">
         <f>+AO32/Main!K3</f>
-        <v>74.17397294794678</v>
+        <v>74.092326923193284</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.2">
@@ -4537,11 +4634,11 @@
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AN34" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AO34" s="7">
         <f>+AO33/Main!K2-1</f>
-        <v>0.30129777101661026</v>
+        <v>0.12261101398777696</v>
       </c>
     </row>
     <row r="35" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -4549,67 +4646,71 @@
         <v>57</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" ref="F35:L35" si="53">+F13/B13-1</f>
+        <f t="shared" ref="F35:L35" si="58">+F13/B13-1</f>
         <v>7.458975634012921E-2</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>9.105482526450781E-2</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.10740860562924626</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>6.7215958369470918E-2</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>8.5917013728212144E-2</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>7.0672935645019086E-2</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>8.3552439380660148E-2</v>
       </c>
       <c r="M35" s="8">
-        <f>+M13/I13-1</f>
+        <f t="shared" ref="M35:R35" si="59">+M13/I13-1</f>
         <v>8.7091968034674228E-2</v>
       </c>
       <c r="N35" s="8">
-        <f>+N13/J13-1</f>
+        <f t="shared" si="59"/>
         <v>9.3607954545454453E-2</v>
       </c>
       <c r="O35" s="8">
-        <f>+O13/K13-1</f>
+        <f t="shared" si="59"/>
         <v>8.2063949499108002E-2</v>
       </c>
       <c r="P35" s="8">
-        <f>+P13/L13-1</f>
+        <f t="shared" si="59"/>
         <v>5.7832299811269916E-2</v>
       </c>
       <c r="Q35" s="8">
-        <f>+Q13/M13-1</f>
+        <f t="shared" si="59"/>
         <v>4.2362322452030865E-2</v>
       </c>
+      <c r="R35" s="8">
+        <f t="shared" si="59"/>
+        <v>1.1949603844655154E-2</v>
+      </c>
       <c r="X35" s="8" t="e">
-        <f t="shared" ref="X35:AA35" si="54">+X13/W13-1</f>
+        <f t="shared" ref="X35:AA35" si="60">+X13/W13-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y35" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0.18257667567819524</v>
       </c>
       <c r="Z35" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>8.4624177210200546E-2</v>
       </c>
       <c r="AA35" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>8.1873682680427384E-2</v>
       </c>
       <c r="AB35" s="8">
@@ -4617,43 +4718,43 @@
         <v>6.8052803063383793E-2</v>
       </c>
       <c r="AC35" s="8">
-        <f t="shared" ref="AC35:AL35" si="55">+AC13/AB13-1</f>
+        <f t="shared" ref="AC35:AL35" si="61">+AC13/AB13-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AD35" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AE35" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AF35" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AG35" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AH35" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AI35" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AJ35" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AK35" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AL35" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
@@ -4662,52 +4763,56 @@
         <v>58</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" ref="F36:L36" si="56">+F18/B18-1</f>
+        <f t="shared" ref="F36:L36" si="62">+F18/B18-1</f>
         <v>-1.3289036544850474E-2</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>-5.2547770700636987E-2</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>-9.1074681238615396E-3</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>-0.21321321321321318</v>
       </c>
       <c r="J36" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>-0.265993265993266</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>-0.21848739495798319</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>-0.1875</v>
       </c>
       <c r="M36" s="7">
-        <f t="shared" ref="M36:Q38" si="57">+M18/I18-1</f>
+        <f t="shared" ref="M36:R38" si="63">+M18/I18-1</f>
         <v>-0.11068702290076338</v>
       </c>
       <c r="N36" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>-3.4403669724770602E-2</v>
       </c>
       <c r="O36" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>-4.0860215053763471E-2</v>
       </c>
       <c r="P36" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>0.14932126696832571</v>
       </c>
       <c r="Q36" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>0.3433476394849786</v>
+      </c>
+      <c r="R36" s="7">
+        <f t="shared" si="63"/>
+        <v>0.15914489311163904</v>
       </c>
     </row>
     <row r="37" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4715,52 +4820,56 @@
         <v>59</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" ref="F37:L37" si="58">+F19/B19-1</f>
+        <f t="shared" ref="F37:L37" si="64">+F19/B19-1</f>
         <v>9.986504723346834E-2</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>9.2493297587131318E-2</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>6.0927152317880706E-2</v>
       </c>
       <c r="I37" s="7">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>3.2663316582914659E-2</v>
       </c>
       <c r="J37" s="7">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>-0.11533742331288344</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>-8.8343558282208634E-2</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>-7.7403245942571752E-2</v>
       </c>
       <c r="M37" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>-6.326034063260344E-2</v>
       </c>
       <c r="N37" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>2.9126213592232997E-2</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>-3.3647375504710642E-2</v>
       </c>
       <c r="P37" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>9.4722598105547728E-3</v>
       </c>
       <c r="Q37" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>3.8961038961038419E-3</v>
+      </c>
+      <c r="R37" s="7">
+        <f t="shared" si="63"/>
+        <v>-1.4824797843665749E-2</v>
       </c>
     </row>
     <row r="38" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4768,52 +4877,56 @@
         <v>60</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" ref="F38:L38" si="59">+F20/B20-1</f>
+        <f t="shared" ref="F38:L38" si="65">+F20/B20-1</f>
         <v>0.15839694656488557</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>-1.5325670498084309E-2</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>-7.0281124497991954E-2</v>
       </c>
       <c r="I38" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>-9.6491228070175405E-2</v>
       </c>
       <c r="J38" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>-0.16474464579901149</v>
       </c>
       <c r="K38" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>-4.4747081712062209E-2</v>
       </c>
       <c r="L38" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>9.5032397408207236E-2</v>
       </c>
       <c r="M38" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>7.5728155339805925E-2</v>
       </c>
       <c r="N38" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>-8.4812623274161725E-2</v>
       </c>
       <c r="O38" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>0.16089613034623218</v>
       </c>
       <c r="P38" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>2.3668639053254337E-2</v>
       </c>
       <c r="Q38" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>7.2202166064981865E-2</v>
+      </c>
+      <c r="R38" s="7">
+        <f t="shared" si="63"/>
+        <v>8.405172413793105E-2</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.2">
@@ -4821,40 +4934,44 @@
         <v>41</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" ref="I40:Q40" si="60">+I41-I54</f>
+        <f t="shared" ref="I40:R40" si="66">+I41-I54</f>
         <v>5469</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>4811</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>3896</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>4762</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>7657</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>8044</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>8542</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>6225</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>5527</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="66"/>
+        <v>4407</v>
       </c>
       <c r="AB40" s="1">
         <f>+Q40</f>
@@ -4865,39 +4982,39 @@
         <v>10535.971630000002</v>
       </c>
       <c r="AD40" s="1">
-        <f t="shared" ref="AD40:AL40" si="61">+AC40+AD26</f>
+        <f t="shared" ref="AD40:AL40" si="67">+AC40+AD26</f>
         <v>16134.198139642001</v>
       </c>
       <c r="AE40" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>22358.509691884625</v>
       </c>
       <c r="AF40" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>29012.424484836574</v>
       </c>
       <c r="AG40" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>36149.194544267346</v>
       </c>
       <c r="AH40" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>43788.957437892444</v>
       </c>
       <c r="AI40" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>51629.486364426673</v>
       </c>
       <c r="AJ40" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>60331.236164148177</v>
       </c>
       <c r="AK40" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>69601.008911302881</v>
       </c>
       <c r="AL40" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>79462.228359011089</v>
       </c>
     </row>
@@ -4941,6 +5058,10 @@
         <f>6561+4262+4583</f>
         <v>15406</v>
       </c>
+      <c r="R41" s="1">
+        <f>7449+3762+4613</f>
+        <v>15824</v>
+      </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -4978,6 +5099,9 @@
       <c r="Q42" s="1">
         <v>984</v>
       </c>
+      <c r="R42" s="1">
+        <v>1082</v>
+      </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -5017,10 +5141,14 @@
         <f>541+6422</f>
         <v>6963</v>
       </c>
+      <c r="R43" s="1">
+        <f>714+6511</f>
+        <v>7225</v>
+      </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I44" s="1">
         <v>36357</v>
@@ -5048,6 +5176,9 @@
       </c>
       <c r="Q44" s="1">
         <v>37671</v>
+      </c>
+      <c r="R44" s="1">
+        <v>39205</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.2">
@@ -5081,6 +5212,9 @@
       <c r="Q45" s="1">
         <v>4651</v>
       </c>
+      <c r="R45" s="1">
+        <v>1888</v>
+      </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -5113,6 +5247,9 @@
       <c r="Q46" s="1">
         <v>1508</v>
       </c>
+      <c r="R46" s="1">
+        <v>1537</v>
+      </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -5153,6 +5290,10 @@
         <f>10837+326</f>
         <v>11163</v>
       </c>
+      <c r="R47" s="1">
+        <f>10910+296</f>
+        <v>11206</v>
+      </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -5184,6 +5325,9 @@
       </c>
       <c r="Q48" s="1">
         <v>3265</v>
+      </c>
+      <c r="R48" s="1">
+        <v>3307</v>
       </c>
     </row>
     <row r="49" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5198,42 +5342,45 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5">
-        <f t="shared" ref="I49:Q49" si="62">SUM(I41:I48)</f>
+        <f t="shared" ref="I49:Q49" si="68">SUM(I41:I48)</f>
         <v>78717</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>77186</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>74579</v>
       </c>
       <c r="L49" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>76440</v>
       </c>
       <c r="M49" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>82166</v>
       </c>
       <c r="N49" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>82882</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>84016</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>83511</v>
       </c>
       <c r="Q49" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>81611</v>
       </c>
-      <c r="R49" s="5"/>
+      <c r="R49" s="5">
+        <f t="shared" ref="R49" si="69">SUM(R41:R48)</f>
+        <v>81274</v>
+      </c>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
@@ -5290,10 +5437,13 @@
       <c r="Q50" s="1">
         <v>227</v>
       </c>
+      <c r="R50" s="1">
+        <v>175</v>
+      </c>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I51" s="1">
         <v>40107</v>
@@ -5321,6 +5471,9 @@
       </c>
       <c r="Q51" s="1">
         <v>39671</v>
+      </c>
+      <c r="R51" s="1">
+        <v>41205</v>
       </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.2">
@@ -5354,6 +5507,9 @@
       <c r="Q52" s="1">
         <v>8478</v>
       </c>
+      <c r="R52" s="1">
+        <v>5242</v>
+      </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -5390,6 +5546,9 @@
       <c r="Q53" s="1">
         <v>2939</v>
       </c>
+      <c r="R53" s="1">
+        <v>2981</v>
+      </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -5421,6 +5580,9 @@
       </c>
       <c r="Q54" s="1">
         <v>9879</v>
+      </c>
+      <c r="R54" s="1">
+        <v>11417</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5435,42 +5597,45 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5">
-        <f t="shared" ref="I55:Q55" si="63">SUM(I50:I54)</f>
+        <f t="shared" ref="I55:Q55" si="70">SUM(I50:I54)</f>
         <v>58443</v>
       </c>
       <c r="J55" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>57328</v>
       </c>
       <c r="K55" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>54918</v>
       </c>
       <c r="L55" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>56700</v>
       </c>
       <c r="M55" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>61115</v>
       </c>
       <c r="N55" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>62645</v>
       </c>
       <c r="O55" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>63394</v>
       </c>
       <c r="P55" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>63337</v>
       </c>
       <c r="Q55" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>61194</v>
       </c>
-      <c r="R55" s="5"/>
+      <c r="R55" s="5">
+        <f t="shared" ref="R55" si="71">SUM(R50:R54)</f>
+        <v>61020</v>
+      </c>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
@@ -5527,46 +5692,53 @@
       <c r="Q56" s="1">
         <v>20417</v>
       </c>
+      <c r="R56" s="1">
+        <v>20417</v>
+      </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>53</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" ref="I57:Q57" si="64">+I56+I55</f>
+        <f t="shared" ref="I57:Q57" si="72">+I56+I55</f>
         <v>78717</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>77186</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>74579</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>76440</v>
       </c>
       <c r="M57" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>82166</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>83347</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>84016</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>83511</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>81611</v>
+      </c>
+      <c r="R57" s="1">
+        <f t="shared" ref="R57" si="73">+R56+R55</f>
+        <v>81437</v>
       </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.2">
@@ -5574,24 +5746,28 @@
         <v>61</v>
       </c>
       <c r="M59" s="1">
-        <f>+M26</f>
+        <f t="shared" ref="M59:R59" si="74">+M26</f>
         <v>1091</v>
       </c>
       <c r="N59" s="1">
-        <f>+N26</f>
+        <f t="shared" si="74"/>
         <v>1100</v>
       </c>
       <c r="O59" s="1">
-        <f>+O26</f>
+        <f t="shared" si="74"/>
         <v>1241</v>
       </c>
       <c r="P59" s="1">
-        <f>+P26</f>
+        <f t="shared" si="74"/>
         <v>1073</v>
       </c>
       <c r="Q59" s="1">
-        <f>+Q26</f>
+        <f t="shared" si="74"/>
         <v>1171</v>
+      </c>
+      <c r="R59" s="1">
+        <f t="shared" si="74"/>
+        <v>1353</v>
       </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.2">
@@ -5613,10 +5789,13 @@
       <c r="Q60" s="1">
         <v>1121</v>
       </c>
+      <c r="R60" s="1">
+        <v>1287</v>
+      </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M61" s="1">
         <v>396</v>
@@ -5632,6 +5811,9 @@
       </c>
       <c r="Q61" s="1">
         <v>434</v>
+      </c>
+      <c r="R61" s="1">
+        <v>371</v>
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.2">
@@ -5653,6 +5835,9 @@
       <c r="Q62" s="1">
         <v>249</v>
       </c>
+      <c r="R62" s="1">
+        <v>245</v>
+      </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -5673,6 +5858,9 @@
       <c r="Q63" s="1">
         <v>283</v>
       </c>
+      <c r="R63" s="1">
+        <v>249</v>
+      </c>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -5693,10 +5881,13 @@
       <c r="Q64" s="1">
         <v>223</v>
       </c>
+      <c r="R64" s="1">
+        <v>-6</v>
+      </c>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M65" s="1">
         <v>4</v>
@@ -5713,10 +5904,13 @@
       <c r="Q65" s="1">
         <v>59</v>
       </c>
+      <c r="R65" s="1">
+        <v>-48</v>
+      </c>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M66" s="1">
         <v>-356</v>
@@ -5733,10 +5927,13 @@
       <c r="Q66" s="1">
         <v>0</v>
       </c>
+      <c r="R66" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M67" s="1">
         <v>-102</v>
@@ -5753,10 +5950,13 @@
       <c r="Q67" s="1">
         <v>-45</v>
       </c>
+      <c r="R67" s="1">
+        <v>-30</v>
+      </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M68" s="1">
         <v>4</v>
@@ -5772,6 +5972,9 @@
       </c>
       <c r="Q68" s="1">
         <v>33</v>
+      </c>
+      <c r="R68" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.2">
@@ -5793,6 +5996,9 @@
       <c r="Q69" s="1">
         <v>135</v>
       </c>
+      <c r="R69" s="1">
+        <v>-73</v>
+      </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -5818,6 +6024,10 @@
         <f>-7325+7193</f>
         <v>-132</v>
       </c>
+      <c r="R70" s="1">
+        <f>-6629+6445</f>
+        <v>-184</v>
+      </c>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -5842,6 +6052,10 @@
       <c r="Q71" s="1">
         <f>54+59-79</f>
         <v>34</v>
+      </c>
+      <c r="R71" s="1">
+        <f>-98-52-526</f>
+        <v>-676</v>
       </c>
     </row>
     <row r="72" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5860,26 +6074,29 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5">
-        <f>SUM(M60:M71)</f>
+        <f t="shared" ref="M72:R72" si="75">SUM(M60:M71)</f>
         <v>2614</v>
       </c>
       <c r="N72" s="5">
-        <f>SUM(N60:N71)</f>
+        <f t="shared" si="75"/>
         <v>1917</v>
       </c>
       <c r="O72" s="5">
-        <f>SUM(O60:O71)</f>
+        <f t="shared" si="75"/>
         <v>1525</v>
       </c>
       <c r="P72" s="5">
-        <f>SUM(P60:P71)</f>
+        <f t="shared" si="75"/>
         <v>1614</v>
       </c>
       <c r="Q72" s="5">
-        <f>SUM(Q60:Q71)</f>
+        <f t="shared" si="75"/>
         <v>2394</v>
       </c>
-      <c r="R72" s="5"/>
+      <c r="R72" s="5">
+        <f t="shared" si="75"/>
+        <v>1160</v>
+      </c>
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
@@ -5932,7 +6149,10 @@
         <f>-203+1</f>
         <v>-202</v>
       </c>
-      <c r="R74" s="5"/>
+      <c r="R74" s="5">
+        <f>-196+2</f>
+        <v>-194</v>
+      </c>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
@@ -5955,67 +6175,83 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="M75" s="1">
-        <v>-5396</v>
+        <f>-5396+5341</f>
+        <v>-55</v>
       </c>
       <c r="N75" s="1">
-        <v>-4779</v>
+        <f>-4779+4827</f>
+        <v>48</v>
       </c>
       <c r="O75" s="1">
-        <v>-5182</v>
+        <f>-5182+4933</f>
+        <v>-249</v>
       </c>
       <c r="P75" s="1">
-        <v>-5413</v>
+        <f>-5413+4945</f>
+        <v>-468</v>
       </c>
       <c r="Q75" s="1">
-        <v>-6433</v>
+        <f>-6433+5567</f>
+        <v>-866</v>
+      </c>
+      <c r="R75" s="1">
+        <f>-5508+5477</f>
+        <v>-31</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M76" s="1">
-        <v>5341</v>
+        <f>-7005+8185+466</f>
+        <v>1646</v>
       </c>
       <c r="N76" s="1">
-        <v>4827</v>
+        <f>-7081+9242</f>
+        <v>2161</v>
       </c>
       <c r="O76" s="1">
-        <v>4933</v>
+        <f>-8923+4999</f>
+        <v>-3924</v>
       </c>
       <c r="P76" s="1">
-        <v>4945</v>
+        <f>-4815+6938</f>
+        <v>2123</v>
       </c>
       <c r="Q76" s="1">
-        <v>5567</v>
+        <f>-5390+5783</f>
+        <v>393</v>
+      </c>
+      <c r="R76" s="1">
+        <f>-5970+5465-200+87</f>
+        <v>-618</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M77" s="1">
-        <f>-7005+8185+466</f>
-        <v>1646</v>
+        <v>-1927</v>
       </c>
       <c r="N77" s="1">
-        <f>-7081+9242</f>
-        <v>2161</v>
+        <v>-1169</v>
       </c>
       <c r="O77" s="1">
-        <f>-8923+4999</f>
-        <v>-3924</v>
+        <v>-198</v>
       </c>
       <c r="P77" s="1">
-        <f>-4815+6938</f>
-        <v>2123</v>
+        <v>1519</v>
       </c>
       <c r="Q77" s="1">
-        <f>-5390+5783</f>
-        <v>393</v>
+        <v>2756</v>
+      </c>
+      <c r="R77" s="1">
+        <v>-2741</v>
       </c>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.2">
@@ -6023,338 +6259,368 @@
         <v>73</v>
       </c>
       <c r="M78" s="1">
-        <v>-1927</v>
+        <v>-64</v>
       </c>
       <c r="N78" s="1">
-        <v>-1169</v>
+        <v>74</v>
       </c>
       <c r="O78" s="1">
-        <v>-198</v>
+        <v>1</v>
       </c>
       <c r="P78" s="1">
-        <v>1519</v>
+        <v>-133</v>
       </c>
       <c r="Q78" s="1">
-        <v>2756</v>
+        <v>131</v>
+      </c>
+      <c r="R78" s="1">
+        <v>-53</v>
       </c>
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="M79" s="1">
-        <v>-64</v>
+        <v>10</v>
       </c>
       <c r="N79" s="1">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="O79" s="1">
-        <v>1</v>
+        <v>-120</v>
       </c>
       <c r="P79" s="1">
-        <v>-133</v>
+        <f>-148+75</f>
+        <v>-73</v>
       </c>
       <c r="Q79" s="1">
-        <v>131</v>
+        <f>259-125+111</f>
+        <v>245</v>
+      </c>
+      <c r="R79" s="1">
+        <v>-20</v>
       </c>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="M80" s="1">
-        <v>10</v>
+        <f t="shared" ref="M80:R80" si="76">SUM(M74:M79)</f>
+        <v>-534</v>
       </c>
       <c r="N80" s="1">
-        <v>20</v>
+        <f t="shared" si="76"/>
+        <v>980</v>
       </c>
       <c r="O80" s="1">
-        <v>-120</v>
+        <f t="shared" si="76"/>
+        <v>-4647</v>
       </c>
       <c r="P80" s="1">
-        <f>-148+75</f>
-        <v>-73</v>
+        <f t="shared" si="76"/>
+        <v>2799</v>
       </c>
       <c r="Q80" s="1">
-        <f>259-125+111</f>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>71</v>
-      </c>
-      <c r="M81" s="1">
-        <f>SUM(M74:M80)</f>
-        <v>-534</v>
-      </c>
-      <c r="N81" s="1">
-        <f>SUM(N74:N80)</f>
-        <v>980</v>
-      </c>
-      <c r="O81" s="1">
-        <f>SUM(O74:O80)</f>
-        <v>-4647</v>
-      </c>
-      <c r="P81" s="1">
-        <f>SUM(P74:P80)</f>
-        <v>2799</v>
-      </c>
-      <c r="Q81" s="1">
-        <f>SUM(Q74:Q80)</f>
+        <f t="shared" si="76"/>
         <v>2457</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="1">
+        <f t="shared" si="76"/>
+        <v>-3657</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="M82" s="1">
+        <v>45</v>
+      </c>
+      <c r="N82" s="1">
+        <v>0</v>
+      </c>
+      <c r="O82" s="1">
+        <v>55</v>
+      </c>
+      <c r="P82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>40</v>
+      </c>
+      <c r="R82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="M83" s="1">
+        <v>-607</v>
+      </c>
+      <c r="N83" s="1">
+        <v>-1501</v>
+      </c>
+      <c r="O83" s="1">
+        <v>-1501</v>
+      </c>
+      <c r="P83" s="1">
+        <v>-1776</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>-1269</v>
+      </c>
+      <c r="R83" s="1">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>90</v>
       </c>
-      <c r="M83" s="1">
-        <v>45</v>
-      </c>
-      <c r="N83" s="1">
-        <v>0</v>
-      </c>
-      <c r="O83" s="1">
-        <v>55</v>
-      </c>
-      <c r="P83" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="M84" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N84" s="1">
+        <v>-167</v>
+      </c>
+      <c r="O84" s="1">
+        <v>-63</v>
+      </c>
+      <c r="P84" s="1">
+        <v>-41</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>-80</v>
+      </c>
+      <c r="R84" s="1">
+        <v>-277</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>91</v>
       </c>
-      <c r="M84" s="1">
-        <v>-607</v>
-      </c>
-      <c r="N84" s="1">
-        <v>-1501</v>
-      </c>
-      <c r="O84" s="1">
-        <v>-1501</v>
-      </c>
-      <c r="P84" s="1">
-        <v>-1776</v>
-      </c>
-      <c r="Q84" s="1">
-        <v>-1269</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>92</v>
-      </c>
       <c r="M85" s="1">
-        <v>-32</v>
-      </c>
-      <c r="N85" s="1">
-        <v>-167</v>
-      </c>
-      <c r="O85" s="1">
-        <v>-63</v>
-      </c>
-      <c r="P85" s="1">
-        <v>-41</v>
-      </c>
-      <c r="Q85" s="1">
-        <v>-80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>93</v>
-      </c>
-      <c r="M86" s="1">
         <f>699-111</f>
         <v>588</v>
       </c>
-      <c r="N86" s="1">
+      <c r="N85" s="1">
         <f>115-359</f>
         <v>-244</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O85" s="1">
         <f>1299-52</f>
         <v>1247</v>
       </c>
-      <c r="P86" s="1">
+      <c r="P85" s="1">
         <f>466-466+132</f>
         <v>132</v>
       </c>
+      <c r="Q85" s="1">
+        <v>-1250</v>
+      </c>
+      <c r="R85" s="1">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="M86" s="1">
+        <v>3138</v>
+      </c>
+      <c r="N86" s="1">
+        <v>-483</v>
+      </c>
+      <c r="O86" s="1">
+        <v>445</v>
+      </c>
+      <c r="P86" s="1">
+        <v>-733</v>
+      </c>
       <c r="Q86" s="1">
-        <v>-1250</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+        <v>-1183</v>
+      </c>
+      <c r="R86" s="1">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>73</v>
+      </c>
+      <c r="M87" s="1">
+        <v>-132</v>
+      </c>
+      <c r="N87" s="1">
+        <v>33</v>
+      </c>
+      <c r="O87" s="1">
+        <v>37</v>
+      </c>
+      <c r="P87" s="1">
+        <v>-71</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>157</v>
+      </c>
+      <c r="R87" s="1">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>46</v>
+      </c>
+      <c r="M88" s="1">
+        <v>0</v>
+      </c>
+      <c r="N88" s="1">
+        <v>0</v>
+      </c>
+      <c r="O88" s="1">
+        <v>-20</v>
+      </c>
+      <c r="P88" s="1">
+        <v>-40</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>0</v>
+      </c>
+      <c r="R88" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>74</v>
+      </c>
+      <c r="M89" s="1">
+        <f t="shared" ref="M89:R89" si="77">SUM(M82:M88)</f>
+        <v>3000</v>
+      </c>
+      <c r="N89" s="1">
+        <f t="shared" si="77"/>
+        <v>-2362</v>
+      </c>
+      <c r="O89" s="1">
+        <f t="shared" si="77"/>
+        <v>200</v>
+      </c>
+      <c r="P89" s="1">
+        <f t="shared" si="77"/>
+        <v>-2529</v>
+      </c>
+      <c r="Q89" s="1">
+        <f t="shared" si="77"/>
+        <v>-3585</v>
+      </c>
+      <c r="R89" s="1">
+        <f t="shared" si="77"/>
+        <v>994</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>75</v>
+      </c>
+      <c r="M91" s="1">
+        <v>171</v>
+      </c>
+      <c r="N91" s="1">
+        <v>-94</v>
+      </c>
+      <c r="O91" s="1">
+        <v>5</v>
+      </c>
+      <c r="P91" s="1">
+        <v>192</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>-310</v>
+      </c>
+      <c r="R91" s="1">
         <v>94</v>
       </c>
-      <c r="M87" s="1">
-        <v>3138</v>
-      </c>
-      <c r="N87" s="1">
-        <v>-483</v>
-      </c>
-      <c r="O87" s="1">
-        <v>445</v>
-      </c>
-      <c r="P87" s="1">
-        <v>-733</v>
-      </c>
-      <c r="Q87" s="1">
-        <v>-1183</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>74</v>
-      </c>
-      <c r="M88" s="1">
-        <v>-132</v>
-      </c>
-      <c r="N88" s="1">
-        <v>33</v>
-      </c>
-      <c r="O88" s="1">
-        <v>37</v>
-      </c>
-      <c r="P88" s="1">
-        <v>-71</v>
-      </c>
-      <c r="Q88" s="1">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>46</v>
-      </c>
-      <c r="M89" s="1">
-        <v>0</v>
-      </c>
-      <c r="N89" s="1">
-        <v>0</v>
-      </c>
-      <c r="O89" s="1">
-        <v>-20</v>
-      </c>
-      <c r="P89" s="1">
-        <v>-40</v>
-      </c>
-      <c r="Q89" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>75</v>
-      </c>
-      <c r="M90" s="1">
-        <f>SUM(M83:M89)</f>
-        <v>3000</v>
-      </c>
-      <c r="N90" s="1">
-        <f>SUM(N83:N89)</f>
-        <v>-2362</v>
-      </c>
-      <c r="O90" s="1">
-        <f>SUM(O83:O89)</f>
-        <v>200</v>
-      </c>
-      <c r="P90" s="1">
-        <f>SUM(P83:P89)</f>
-        <v>-2529</v>
-      </c>
-      <c r="Q90" s="1">
-        <f>SUM(Q83:Q89)</f>
-        <v>-3585</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>76</v>
       </c>
       <c r="M92" s="1">
-        <v>171</v>
+        <f t="shared" ref="M92:R92" si="78">+M72+M80+M89+M91</f>
+        <v>5251</v>
       </c>
       <c r="N92" s="1">
-        <v>-94</v>
+        <f t="shared" si="78"/>
+        <v>441</v>
       </c>
       <c r="O92" s="1">
-        <v>5</v>
+        <f t="shared" si="78"/>
+        <v>-2917</v>
       </c>
       <c r="P92" s="1">
-        <v>192</v>
+        <f t="shared" si="78"/>
+        <v>2076</v>
       </c>
       <c r="Q92" s="1">
-        <v>-310</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+        <f t="shared" si="78"/>
+        <v>956</v>
+      </c>
+      <c r="R92" s="1">
+        <f t="shared" si="78"/>
+        <v>-1409</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>77</v>
       </c>
-      <c r="M93" s="1">
-        <f>+M72+M81+M90+M92</f>
-        <v>5251</v>
-      </c>
-      <c r="N93" s="1">
-        <f>+N72+N81+N90+N92</f>
-        <v>441</v>
-      </c>
-      <c r="O93" s="1">
-        <f>+O72+O81+O90+O92</f>
-        <v>-2917</v>
-      </c>
-      <c r="P93" s="1">
-        <f>+P72+P81+P90+P92</f>
-        <v>2076</v>
-      </c>
-      <c r="Q93" s="1">
-        <f>+Q72+Q81+Q90+Q92</f>
-        <v>956</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M94" s="1">
+        <f t="shared" ref="M94:R94" si="79">+M72+M74</f>
+        <v>2470</v>
+      </c>
+      <c r="N94" s="1">
+        <f t="shared" si="79"/>
+        <v>1763</v>
+      </c>
+      <c r="O94" s="1">
+        <f t="shared" si="79"/>
+        <v>1368</v>
+      </c>
+      <c r="P94" s="1">
+        <f t="shared" si="79"/>
+        <v>1445</v>
+      </c>
+      <c r="Q94" s="1">
+        <f t="shared" si="79"/>
+        <v>2192</v>
+      </c>
+      <c r="R94" s="1">
+        <f t="shared" si="79"/>
+        <v>966</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>78</v>
-      </c>
-      <c r="M95" s="1">
-        <f>+M72+M74</f>
-        <v>2470</v>
-      </c>
-      <c r="N95" s="1">
-        <f>+N72+N74</f>
-        <v>1763</v>
-      </c>
-      <c r="O95" s="1">
-        <f>+O72+O74</f>
-        <v>1368</v>
+        <v>93</v>
       </c>
       <c r="P95" s="1">
-        <f>+P72+P74</f>
-        <v>1445</v>
+        <f>+SUM(M94:P94)</f>
+        <v>7046</v>
       </c>
       <c r="Q95" s="1">
-        <f>+Q72+Q74</f>
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="P96" s="1">
-        <f>+SUM(M95:P95)</f>
-        <v>7046</v>
-      </c>
-      <c r="Q96" s="1">
-        <f>+SUM(N95:Q95)</f>
+        <f>+SUM(N94:Q94)</f>
         <v>6768</v>
+      </c>
+      <c r="R95" s="1">
+        <f>+SUM(O94:R94)</f>
+        <v>5971</v>
       </c>
     </row>
   </sheetData>
